--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3903.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3903.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.803761385915003</v>
+        <v>1.612369179725647</v>
       </c>
       <c r="B1">
-        <v>2.308101862541258</v>
+        <v>2.923484802246094</v>
       </c>
       <c r="C1">
-        <v>3.440485958401012</v>
+        <v>3.592628955841064</v>
       </c>
       <c r="D1">
-        <v>6.773515075676187</v>
+        <v>3.835409879684448</v>
       </c>
       <c r="E1">
-        <v>0.7284112160328094</v>
+        <v>2.808867692947388</v>
       </c>
     </row>
   </sheetData>
